--- a/消防/05_日报/513工作汇报.xlsx
+++ b/消防/05_日报/513工作汇报.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\物联网\每日汇报\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\物联网\githup\消防\05_日报\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8370" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="9765" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -55,10 +55,6 @@
   </si>
   <si>
     <t>已经关闭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017年05月13日测试情况汇报</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -97,6 +93,10 @@
 1.ci方面：已经完成了CI搭建，集成成功，编译成功，但是缺少发布脚本---需要吴亚南提供。
 2.目前测试视频方面存在较多问题。主要有显示不了，点击全屏进行特定操作后卡死情况等等。
 3.支队版本开始进行需求熟悉，预计周日晚上前可以完成需求测试---到时候需要好姐进行需求答疑。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>05月13日测试情况汇报</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -499,7 +499,7 @@
   <dimension ref="B1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:F10"/>
+      <selection activeCell="B2" sqref="B2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -511,7 +511,7 @@
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B1" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.15">
@@ -578,7 +578,7 @@
     </row>
     <row r="10" spans="2:6" ht="101.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -587,7 +587,7 @@
     </row>
     <row r="11" spans="2:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
